--- a/data/trans_bre/P08_2_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P08_2_R-Clase-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>0.1001155227599138</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>3.842347497269611</v>
+        <v>3.842347497269607</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3992322926063794</v>
@@ -649,7 +649,7 @@
         <v>0.008791015804410308</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.4408443354546539</v>
+        <v>0.4408443354546536</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.2281395012784291</v>
+        <v>-0.7634716242737247</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-6.058838637803869</v>
+        <v>-6.037810756879037</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-4.833734994838681</v>
+        <v>-4.511979386867697</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.4389077004364813</v>
+        <v>0.4165079188321453</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.02591992204660689</v>
+        <v>-0.06395539484568978</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.411624810464324</v>
+        <v>-0.4101045639688722</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.3563070955325696</v>
+        <v>-0.353895222498005</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.03912300052001088</v>
+        <v>0.03067830364745012</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>10.03129128115245</v>
+        <v>9.77100784373977</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.294582353938179</v>
+        <v>4.28070563038939</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.077740158011884</v>
+        <v>5.620185744484348</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.093505397929521</v>
+        <v>7.216334257746233</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.056991887120794</v>
+        <v>1.003329015475626</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3806611416644959</v>
+        <v>0.4454368911405481</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5487678465907206</v>
+        <v>0.6274649999813113</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.9660917831345532</v>
+        <v>0.9952383102497954</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>1.576731219922503</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>3.260543144115299</v>
+        <v>3.260543144115301</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.06984019619104564</v>
@@ -749,7 +749,7 @@
         <v>0.1495795565289679</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.2848476598418674</v>
+        <v>0.2848476598418676</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-4.831436569768003</v>
+        <v>-4.728760976233313</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-4.568087243357204</v>
+        <v>-4.910421144117956</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-3.052883130273722</v>
+        <v>-3.129887742781204</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-0.8114989200382705</v>
+        <v>-0.8347972141467602</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4419777538874261</v>
+        <v>-0.441921345106889</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3557326119886193</v>
+        <v>-0.3756541579343834</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2580372033402607</v>
+        <v>-0.2425336609861182</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.07008145745600131</v>
+        <v>-0.06700754864391864</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.823808167943656</v>
+        <v>3.67964822533978</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>4.901661678137403</v>
+        <v>4.588584874816153</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>6.730652510583606</v>
+        <v>6.575040456532226</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6.894032288656217</v>
+        <v>7.312064371529201</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.602370593171051</v>
+        <v>0.5832172477625184</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5659065985558306</v>
+        <v>0.5150722146554392</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.838061621407876</v>
+        <v>0.838680837769718</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.7271641357019309</v>
+        <v>0.7592079636554832</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>3.7109459382587</v>
+        <v>3.905642893576229</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.295024877377869</v>
+        <v>2.03062151708205</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3.169329854786971</v>
+        <v>3.037803484456929</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3.260588720356262</v>
+        <v>3.73720691987953</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.2466003357763711</v>
+        <v>0.2453234516590093</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1135884017598097</v>
+        <v>0.08962636425434607</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1574042815196112</v>
+        <v>0.1710763237285392</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.1815811092458131</v>
+        <v>0.1925293363819339</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>18.70114969843625</v>
+        <v>18.54398941021257</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>15.21440167717116</v>
+        <v>15.50721918914595</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>18.71814962140064</v>
+        <v>19.47077109262744</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>15.36345700374123</v>
+        <v>15.71975593686011</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.621894912519566</v>
+        <v>1.581174306188662</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.932462016942652</v>
+        <v>0.9388233243288824</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.365649325269801</v>
+        <v>1.402740732627262</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.080860742840035</v>
+        <v>1.102435443080205</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-2.486415687763902</v>
+        <v>-2.303348039082129</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-6.105134360809729</v>
+        <v>-6.342159528062176</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-4.570854605144258</v>
+        <v>-4.530660156894919</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-5.833544740966886</v>
+        <v>-6.331162466720089</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1245813370958363</v>
+        <v>-0.1163954293539821</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3117437917917144</v>
+        <v>-0.3224943722571256</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2601503453486413</v>
+        <v>-0.2542045406300849</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2800624389253125</v>
+        <v>-0.2989776194551209</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>5.04316063682292</v>
+        <v>4.915401922476157</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8304027849491284</v>
+        <v>0.8218274013813528</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2.018882209358141</v>
+        <v>2.404515981503383</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>-0.08194989588886249</v>
+        <v>0.06154104742795181</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.278998229104474</v>
+        <v>0.2803406391113634</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.04330409970505057</v>
+        <v>0.0497925934907715</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1331735487155435</v>
+        <v>0.1519438573003049</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.006553688028050248</v>
+        <v>0.004075352409260122</v>
       </c>
     </row>
     <row r="16">
@@ -1049,7 +1049,7 @@
         <v>0.391004565904615</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.5469477836181497</v>
+        <v>0.5469477836181499</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.7770819499042423</v>
+        <v>-0.3456058812444924</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>11.02379077866619</v>
+        <v>11.20546111678723</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3.219431097757051</v>
+        <v>3.301887877147659</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>6.324089006864613</v>
+        <v>6.316791652164383</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.03919848190172966</v>
+        <v>-0.01740131969771878</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5243082259218149</v>
+        <v>0.5558499602760496</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1399701723701955</v>
+        <v>0.1446703960158519</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.3005479391672423</v>
+        <v>0.2844501199381681</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>9.676157693967378</v>
+        <v>9.665236048467539</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>20.74714296067163</v>
+        <v>20.33868569981937</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>12.74290867998784</v>
+        <v>12.66419989424922</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>14.13866165092518</v>
+        <v>14.45652308652859</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.7610242034384956</v>
+        <v>0.7262223556743638</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.396750691555194</v>
+        <v>1.379860301655381</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6954640632905813</v>
+        <v>0.7037205592291315</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.8536298365985461</v>
+        <v>0.8817983446748446</v>
       </c>
     </row>
     <row r="19">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>25.86572178964536</v>
+        <v>25.90071942546965</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>27.54576429121362</v>
+        <v>27.55435943219019</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>25.90610330765648</v>
+        <v>25.37028275298571</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>26.17279196808633</v>
+        <v>26.70787990385864</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>4.500553526893714</v>
+        <v>4.456531748946571</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>3.899472427380107</v>
+        <v>3.870050559032977</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>5.472794899360278</v>
+        <v>5.545544470715111</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>5.54646456564128</v>
+        <v>5.9998905090175</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>32.14932045164559</v>
+        <v>32.41921450534272</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>35.45881298767299</v>
+        <v>34.93584356446416</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>32.70304613624261</v>
+        <v>32.24317001337941</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>32.85130459089073</v>
+        <v>33.05511940855466</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>17.11509788938542</v>
+        <v>17.6061503970034</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>17.48437240914227</v>
+        <v>16.89517852290827</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>37.35477602631624</v>
+        <v>38.11642492411031</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>28.65967631670544</v>
+        <v>29.90054789469034</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>8.182890470936085</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>7.868690064683878</v>
+        <v>7.86869006468388</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6676122381268113</v>
@@ -1249,7 +1249,7 @@
         <v>0.5631315230093638</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.5292794678804034</v>
+        <v>0.5292794678804037</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>7.453330237842527</v>
+        <v>7.383439799847539</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>8.194607290557592</v>
+        <v>8.084454453005973</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>6.327676975590093</v>
+        <v>6.236944931915112</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>6.194724571411254</v>
+        <v>6.264937465194325</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.5021049074487426</v>
+        <v>0.4962936926851205</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4953632088417848</v>
+        <v>0.4865302655894217</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.4155417688875077</v>
+        <v>0.4101117653772317</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.3873997357393586</v>
+        <v>0.3991857629988177</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>11.13649552419819</v>
+        <v>11.12339302370049</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>12.14363833519048</v>
+        <v>12.14177933191938</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>10.09291920875799</v>
+        <v>9.980129356336542</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>9.491915347600605</v>
+        <v>9.4979586565942</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.8618866226854874</v>
+        <v>0.8621037757867887</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.8276082152743233</v>
+        <v>0.8247756677755744</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.7430809146616806</v>
+        <v>0.7280598885025606</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.6794314623920513</v>
+        <v>0.6742369037460534</v>
       </c>
     </row>
     <row r="25">
